--- a/config/test_config.xlsx
+++ b/config/test_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.barbu\Documents\uipath\projects\templates\document-manipulation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C0003-5AFF-4DD2-AAA5-83C01A8D0B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F63FBA-E6E7-460B-8310-160C9ED11552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -156,18 +156,12 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>KibanaDemoQueue</t>
-  </si>
-  <si>
     <t>Orchestrator Queue Name. Be sure to match this name with the one from the server.</t>
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
@@ -247,6 +241,9 @@
   </si>
   <si>
     <t>process\src\assets\template.docx</t>
+  </si>
+  <si>
+    <t>doc-manipulation</t>
   </si>
 </sst>
 </file>
@@ -607,7 +604,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -657,125 +654,125 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/config/test_config.xlsx
+++ b/config/test_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.barbu\Documents\uipath\projects\templates\document-manipulation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F63FBA-E6E7-460B-8310-160C9ED11552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C3546-D9A7-4962-A3C8-1045FCAFB127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -195,22 +195,10 @@
     <t>tmp\processed</t>
   </si>
   <si>
-    <t>sharepoint_site</t>
-  </si>
-  <si>
-    <t>https://uipath.sharepoint.com/sites/andreibarbu</t>
-  </si>
-  <si>
     <t>input_file_credential</t>
   </si>
   <si>
     <t>test_doc_manipulation</t>
-  </si>
-  <si>
-    <t>sharepoint_credential</t>
-  </si>
-  <si>
-    <t>test_sharepoint</t>
   </si>
   <si>
     <t>send_email_address</t>
@@ -601,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -654,7 +642,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -665,7 +653,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -740,15 +728,15 @@
         <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -756,25 +744,11 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1752,9 +1726,6 @@
     <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
